--- a/iptal_import_optimize.xlsx
+++ b/iptal_import_optimize.xlsx
@@ -404,12 +404,12 @@
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
@@ -418,40 +418,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Müşteri Adı</v>
+        <v>customerName</v>
       </c>
       <c r="B1" t="str">
-        <v>Blok</v>
+        <v>blockNo</v>
       </c>
       <c r="C1" t="str">
-        <v>Daire</v>
+        <v>apartmentNo</v>
       </c>
       <c r="D1" t="str">
-        <v>Dönem</v>
+        <v>periodNo</v>
       </c>
       <c r="E1" t="str">
-        <v>Sözleşme No</v>
+        <v>contractNo</v>
       </c>
       <c r="F1" t="str">
-        <v>Satış Tarihi</v>
+        <v>saleDate</v>
       </c>
       <c r="G1" t="str">
-        <v>Liste Fiyatı</v>
+        <v>listPrice</v>
       </c>
       <c r="H1" t="str">
-        <v>Aktivite Fiyatı</v>
+        <v>activitySalePrice</v>
       </c>
       <c r="I1" t="str">
-        <v>Prim Tutarı</v>
+        <v>primAmount</v>
       </c>
       <c r="J1" t="str">
-        <v>Temsilci Email</v>
+        <v>salesperson</v>
       </c>
       <c r="K1" t="str">
-        <v>İptal Tarihi</v>
+        <v>cancelledAt</v>
       </c>
       <c r="L1" t="str">
-        <v>İptal Eden Email</v>
+        <v>cancelledBy</v>
       </c>
     </row>
     <row r="2">
@@ -483,13 +483,13 @@
         <v>11250</v>
       </c>
       <c r="J2" t="str">
-        <v>fatma@firma.com</v>
+        <v>Fatma KOCAMAN</v>
       </c>
       <c r="K2" t="str">
         <v>2025-09-13</v>
       </c>
       <c r="L2" t="str">
-        <v>admin@firma.com</v>
+        <v>Selçuk TUNCER</v>
       </c>
     </row>
     <row r="3">
@@ -521,13 +521,13 @@
         <v>13750</v>
       </c>
       <c r="J3" t="str">
-        <v>fatma@firma.com</v>
+        <v>Fatma KOCAMAN</v>
       </c>
       <c r="K3" t="str">
         <v>2025-09-13</v>
       </c>
       <c r="L3" t="str">
-        <v>admin@firma.com</v>
+        <v>Selçuk TUNCER</v>
       </c>
     </row>
     <row r="4">
@@ -559,13 +559,13 @@
         <v>17500</v>
       </c>
       <c r="J4" t="str">
-        <v>rahma@firma.com</v>
+        <v>Rahma ABOERLISH</v>
       </c>
       <c r="K4" t="str">
         <v>2025-09-18</v>
       </c>
       <c r="L4" t="str">
-        <v>admin@firma.com</v>
+        <v>Selçuk TUNCER</v>
       </c>
     </row>
   </sheetData>
